--- a/Übungen/Netzplan_Übung_LEK.xlsx
+++ b/Übungen/Netzplan_Übung_LEK.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabe1" sheetId="1" state="visible" r:id="rId2"/>
@@ -723,7 +723,7 @@
   </sheetPr>
   <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2540,9 +2540,9 @@
   <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" ySplit="0" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2581,23 +2581,23 @@
       <c r="S1" s="1"/>
       <c r="T1" s="3" t="n">
         <f aca="false">Q6</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U1" s="3"/>
       <c r="V1" s="3" t="n">
         <f aca="false">T1+T3</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="3" t="n">
         <f aca="false">V1</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3" t="n">
         <f aca="false">Y1+Y3</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
@@ -2716,23 +2716,23 @@
       <c r="S4" s="1"/>
       <c r="T4" s="3" t="n">
         <f aca="false">V4-T3</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="n">
         <f aca="false">MIN(Y4,Y9)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="3" t="n">
         <f aca="false">AA4-Y3</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3" t="n">
         <f aca="false">AD9</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AB4" s="10"/>
       <c r="AC4" s="1"/>
@@ -2781,51 +2781,51 @@
         <v>6</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3" t="n">
         <f aca="false">O6+O8</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R6" s="11"/>
       <c r="T6" s="3" t="n">
         <f aca="false">Q6</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="n">
         <f aca="false">T6+T8</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y6" s="3" t="n">
         <f aca="false">V6</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3" t="n">
         <f aca="false">Y6+Y8</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="3" t="n">
         <f aca="false">MAX(AA1,AA6)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3" t="n">
         <f aca="false">AD6+AD8</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AI6" s="3" t="n">
         <f aca="false">MAX(AF6,AA11)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3" t="n">
         <f aca="false">AI6+AI8</f>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2901,11 +2901,11 @@
       </c>
       <c r="K8" s="8" t="n">
         <f aca="false">L9-L6</f>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="L8" s="8" t="n">
         <f aca="false">O6-L6</f>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="O8" s="8" t="n">
         <f aca="false">VLOOKUP(O7,$A$2:$C$11,3)</f>
@@ -2983,59 +2983,59 @@
       <c r="G9" s="2"/>
       <c r="J9" s="3" t="n">
         <f aca="false">L9-J8</f>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="n">
         <f aca="false">O9</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O9" s="3" t="n">
         <f aca="false">Q9-O8</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3" t="n">
         <f aca="false">MIN(T4,T9,T14)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R9" s="9"/>
       <c r="T9" s="3" t="n">
         <f aca="false">V9-T8</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3" t="n">
         <f aca="false">Y9</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Y9" s="3" t="n">
         <f aca="false">AA9-Y8</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3" t="n">
         <f aca="false">AD9</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AD9" s="3" t="n">
         <f aca="false">AF9-AD8</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3" t="n">
         <f aca="false">AI9</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AG9" s="10"/>
       <c r="AI9" s="3" t="n">
         <f aca="false">AK9-AI8</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3" t="n">
         <f aca="false">AK6</f>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3101,23 +3101,23 @@
       <c r="S11" s="1"/>
       <c r="T11" s="3" t="n">
         <f aca="false">Q6</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U11" s="3"/>
       <c r="V11" s="3" t="n">
         <f aca="false">T11+T13</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="3" t="n">
         <f aca="false">V11</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3" t="n">
         <f aca="false">Y11+Y13</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
@@ -3194,23 +3194,23 @@
       <c r="S14" s="1"/>
       <c r="T14" s="3" t="n">
         <f aca="false">V14-T13</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="U14" s="3"/>
       <c r="V14" s="3" t="n">
         <f aca="false">Y14</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="3" t="n">
         <f aca="false">AA14-Y13</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3" t="n">
         <f aca="false">AI9</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -4705,8 +4705,8 @@
   </sheetPr>
   <dimension ref="A1:AO14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="0" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Q11" activeCellId="0" sqref="Q11"/>
     </sheetView>
